--- a/ARKK.xlsx
+++ b/ARKK.xlsx
@@ -11300,13 +11300,13 @@
         <v>85.33000183105469</v>
       </c>
       <c r="D251" t="n">
-        <v>83.19000244140625</v>
+        <v>83.18000030517578</v>
       </c>
       <c r="E251" t="n">
         <v>83.58000183105469</v>
       </c>
       <c r="F251" t="n">
-        <v>9756362</v>
+        <v>9995700</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0.7614330977278776</v>
       </c>
       <c r="L251" t="n">
-        <v>10049088.1</v>
+        <v>10061055</v>
       </c>
       <c r="M251" t="n">
         <v>78.26849975585938</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9756362</v>
+        <v>9995700</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
